--- a/src/main/resources/gsis/excel/jgDtitle/d05.xlsx
+++ b/src/main/resources/gsis/excel/jgDtitle/d05.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/work/문서/2021/15.성인지통계DB포털/샘플/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangjinhyeog/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA1C4F5-DA70-CB4B-9418-0B416C714CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E433482-C852-E748-B550-4EA09847DC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3160" yWindow="1640" windowWidth="27640" windowHeight="15220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39640" yWindow="1520" windowWidth="27640" windowHeight="15220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="27">
   <si>
     <t>년도</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -112,6 +112,25 @@
   </si>
   <si>
     <t>  3,637,483</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1176</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>27.7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -509,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -569,8 +588,12 @@
       <c r="F2" s="4">
         <v>461787</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
@@ -591,8 +614,12 @@
       <c r="F3" s="4">
         <v>459787</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
@@ -613,8 +640,12 @@
       <c r="F4" s="4">
         <v>2000</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
@@ -633,8 +664,12 @@
         <v>0.6</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
@@ -655,8 +690,12 @@
       <c r="F6" s="4">
         <v>872214</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
@@ -677,8 +716,12 @@
       <c r="F7" s="4">
         <v>862597</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
@@ -699,8 +742,12 @@
       <c r="F8" s="4">
         <v>9617</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
@@ -719,8 +766,12 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
@@ -741,8 +792,12 @@
       <c r="F10" s="4">
         <v>1417819</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
@@ -763,8 +818,12 @@
       <c r="F11" s="4">
         <v>1393042</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
@@ -785,8 +844,12 @@
       <c r="F12" s="4">
         <v>24777</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
@@ -805,8 +868,12 @@
         <v>1.9</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
@@ -827,8 +894,12 @@
       <c r="F14" s="4">
         <v>1633674</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
@@ -849,8 +920,12 @@
       <c r="F15" s="4">
         <v>1595418</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
@@ -871,8 +946,12 @@
       <c r="F16" s="4">
         <v>38255</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
@@ -891,8 +970,12 @@
         <v>2.9</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
@@ -968,7 +1051,9 @@
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1">
@@ -990,7 +1075,9 @@
       <c r="G21" s="3">
         <v>0</v>
       </c>
-      <c r="H21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1">
@@ -1090,7 +1177,9 @@
       <c r="G25" s="3">
         <v>28.6</v>
       </c>
-      <c r="H25" s="3"/>
+      <c r="H25" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1">
@@ -1186,11 +1275,15 @@
       <c r="E29" s="3">
         <v>3.4</v>
       </c>
-      <c r="F29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="G29" s="3">
         <v>25</v>
       </c>
-      <c r="H29" s="3"/>
+      <c r="H29" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1">
@@ -1266,7 +1359,9 @@
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="4"/>
+      <c r="H32" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1">
@@ -1284,11 +1379,15 @@
       <c r="E33" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
-      <c r="H33" s="3"/>
+      <c r="H33" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1">
@@ -1384,11 +1483,15 @@
       <c r="E37" s="3">
         <v>7.9</v>
       </c>
-      <c r="F37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="G37" s="3">
         <v>23.5</v>
       </c>
-      <c r="H37" s="3"/>
+      <c r="H37" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1">
@@ -1484,11 +1587,15 @@
       <c r="E41" s="3">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="G41" s="3">
         <v>16.7</v>
       </c>
-      <c r="H41" s="3"/>
+      <c r="H41" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1">
@@ -1584,11 +1691,15 @@
       <c r="E45" s="3">
         <v>10.6</v>
       </c>
-      <c r="F45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="G45" s="3">
         <v>17.100000000000001</v>
       </c>
-      <c r="H45" s="3"/>
+      <c r="H45" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1">
@@ -1603,8 +1714,8 @@
       <c r="D46" s="3">
         <v>3354862</v>
       </c>
-      <c r="E46" s="3">
-        <v>1176</v>
+      <c r="E46" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="F46" s="4">
         <v>8816972</v>
@@ -1684,11 +1795,15 @@
       <c r="E49" s="3">
         <v>18.399999999999999</v>
       </c>
-      <c r="F49" s="1"/>
+      <c r="F49" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="G49" s="3">
         <v>12.9</v>
       </c>
-      <c r="H49" s="3"/>
+      <c r="H49" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1">
@@ -1784,11 +1899,15 @@
       <c r="E53" s="3">
         <v>23.9</v>
       </c>
-      <c r="F53" s="1"/>
+      <c r="F53" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="G53" s="3">
         <v>14.3</v>
       </c>
-      <c r="H53" s="3"/>
+      <c r="H53" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1">
@@ -1881,16 +2000,18 @@
       <c r="D57" s="1">
         <v>0</v>
       </c>
-      <c r="E57" s="1">
-        <f>E56/E54*100</f>
-        <v>27.659574468085108</v>
-      </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="3">
-        <f>G56/G54*100</f>
-        <v>23.076923076923077</v>
-      </c>
-      <c r="H57" s="3"/>
+      <c r="E57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
